--- a/csci_major_requirements.xlsx
+++ b/csci_major_requirements.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marou\Documents\Oberlin\3rd year\2nd sem\AI\occs364s19-degreepath\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E2CD2-5FB2-48A2-A120-1388B1F8DD73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>Department</t>
   </si>
@@ -49,9 +48,6 @@
     <t>Programming Abstractions</t>
   </si>
   <si>
-    <t>csci 151, math 220</t>
-  </si>
-  <si>
     <t>Algorithms</t>
   </si>
   <si>
@@ -136,9 +132,6 @@
     <t>math</t>
   </si>
   <si>
-    <t>math 133</t>
-  </si>
-  <si>
     <t>Discrete Mathematics</t>
   </si>
   <si>
@@ -149,12 +142,30 @@
   </si>
   <si>
     <t>Calculus l</t>
+  </si>
+  <si>
+    <t>CSCI 150</t>
+  </si>
+  <si>
+    <t>CSCI 241</t>
+  </si>
+  <si>
+    <t>CSCI 151</t>
+  </si>
+  <si>
+    <t>CSCI 151, MATH 220</t>
+  </si>
+  <si>
+    <t>CSCI 280, MATH 220</t>
+  </si>
+  <si>
+    <t>MATH 133</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -195,16 +206,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -212,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -226,6 +237,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -288,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -340,7 +354,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -534,33 +548,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,29 +585,29 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -604,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -618,10 +632,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -632,10 +646,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -643,13 +657,13 @@
         <v>280</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -657,32 +671,32 @@
         <v>383</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1">
         <v>220</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -690,13 +704,13 @@
         <v>150</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -704,13 +718,13 @@
         <v>151</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
@@ -718,13 +732,13 @@
         <v>215</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -732,13 +746,13 @@
         <v>259</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
@@ -746,13 +760,13 @@
         <v>307</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
@@ -760,13 +774,13 @@
         <v>311</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
@@ -774,13 +788,13 @@
         <v>313</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>3</v>
       </c>
@@ -788,13 +802,13 @@
         <v>317</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
@@ -802,13 +816,13 @@
         <v>321</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>3</v>
       </c>
@@ -816,13 +830,13 @@
         <v>331</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
@@ -830,13 +844,13 @@
         <v>333</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
@@ -844,13 +858,13 @@
         <v>341</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -858,13 +872,13 @@
         <v>342</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
@@ -872,13 +886,13 @@
         <v>343</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -886,13 +900,13 @@
         <v>344</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
@@ -900,13 +914,13 @@
         <v>347</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>3</v>
       </c>
@@ -914,13 +928,13 @@
         <v>357</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>3</v>
       </c>
@@ -928,13 +942,13 @@
         <v>361</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>3</v>
       </c>
@@ -942,13 +956,13 @@
         <v>364</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>3</v>
       </c>
@@ -956,13 +970,13 @@
         <v>365</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="12">
       <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
@@ -970,127 +984,127 @@
         <v>374</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="12">
       <c r="A32" s="6"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12">
       <c r="A33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="12">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="12">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="12">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="12">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="12">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="12">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="12">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="12">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="12">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="12">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="12">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="12">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="12">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="12">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="12">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="12">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="12">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="12">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="12">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="12">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1100,26 +1114,26 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="12">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="12">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="12">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="12">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1127,103 +1141,108 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="12">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="62" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="12">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="12">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="12">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="12">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="12">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="12">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="12">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="12">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="12">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="12">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="12">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="12">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="12">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="12">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="12">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="12">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="12">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="12">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="12">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="12">
       <c r="A81" s="1"/>
     </row>
-    <row r="1005" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:1" ht="12">
       <c r="A1005" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>